--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black-browed Albatross_Falkland Islands (Islas Malvinas).xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Black-browed Albatross_Falkland Islands (Islas Malvinas).xlsx
@@ -2886,13 +2886,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76C6C6B0-E12D-489C-9171-C9673E16D226}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B2E836-AEB3-4BEF-A4F3-0B9DC861DFA3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C8EA65-C7AE-4EB7-8B60-DD1C7E73980D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2453364-A4FE-4CFE-8214-7E274F0519B1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D96305B7-78BA-4035-9FCF-5C28C7B27F13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAA821A-B457-448A-A0A4-AF1736E5374A}"/>
 </file>